--- a/StructureDefinition-VunsPatient.xlsx
+++ b/StructureDefinition-VunsPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsPatient.xlsx
+++ b/StructureDefinition-VunsPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:57:29+02:00</t>
+    <t>2025-05-27T16:55:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -324,13 +324,154 @@
 </t>
   </si>
   <si>
-    <t>Patient.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace</t>
+  </si>
+  <si>
+    <t>birthPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-birthPlace}
+</t>
+  </si>
+  <si>
+    <t>Place of Birth for patient</t>
+  </si>
+  <si>
+    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.id</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -340,435 +481,132 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Patient.meta.extension</t>
+    <t>Patient.extension:birthPlace.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/patient-birthPlace</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthPlace.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {http://hl7.eu/fhir/base/StructureDefinition/Address-eu}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Patient.extension:sex-for-clinical-use</t>
+  </si>
+  <si>
+    <t>sex-for-clinical-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}
+</t>
+  </si>
+  <si>
+    <t>Sex for clinical use</t>
+  </si>
+  <si>
+    <t>A parameter that provides guidance on how a recipient should apply settings or reference ranges that are derived from observable information such as an organ inventory, recent hormone lab tests, genetic testing, menstrual status, obstetric history, etc..</t>
+  </si>
+  <si>
+    <t>Patient.extension:patient-citizenship</t>
+  </si>
+  <si>
+    <t>patient-citizenship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-citizenship}
+</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>The patient's legal status as citizen of a country.</t>
+  </si>
+  <si>
+    <t>Patient.extension:patient-nationality</t>
+  </si>
+  <si>
+    <t>patient-nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-nationality}
+</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>The nationality of the patient.</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Patient.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Patient.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Patient.meta.profile</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Patient.meta.profile:bePatient</t>
-  </si>
-  <si>
-    <t>bePatient</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient</t>
-  </si>
-  <si>
-    <t>Patient.meta.profile:euPatient</t>
-  </si>
-  <si>
-    <t>euPatient</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/laboratory/StructureDefinition/Patient-eu-lab</t>
-  </si>
-  <si>
-    <t>Patient.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Patient.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthPlace</t>
-  </si>
-  <si>
-    <t>birthPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
-</t>
-  </si>
-  <si>
-    <t>Place of Birth for patient</t>
-  </si>
-  <si>
-    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthPlace.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthPlace.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthPlace.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/patient-birthPlace</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthPlace.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address {http://hl7.eu/fhir/base/StructureDefinition/Address-eu}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
-  </si>
-  <si>
-    <t>Patient.extension:sex-for-clinical-use</t>
-  </si>
-  <si>
-    <t>sex-for-clinical-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-sexParameterForClinicalUse}
-</t>
-  </si>
-  <si>
-    <t>Sex for clinical use</t>
-  </si>
-  <si>
-    <t>A parameter that provides guidance on how a recipient should apply settings or reference ranges that are derived from observable information such as an organ inventory, recent hormone lab tests, genetic testing, menstrual status, obstetric history, etc..</t>
-  </si>
-  <si>
-    <t>Patient.extension:patient-citizenship</t>
-  </si>
-  <si>
-    <t>patient-citizenship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-citizenship}
-</t>
-  </si>
-  <si>
-    <t>Citizenship</t>
-  </si>
-  <si>
-    <t>The patient's legal status as citizen of a country.</t>
-  </si>
-  <si>
-    <t>Patient.extension:patient-nationality</t>
-  </si>
-  <si>
-    <t>patient-nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-nationality}
-</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>The nationality of the patient.</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -839,7 +677,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://hl7.eu/fhir/base/StructureDefinition/HumanName-eu}
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
@@ -872,7 +710,17 @@
     <t>Patient.name.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Patient.name.extension:name-absent-reason</t>
@@ -976,71 +824,6 @@
     <t>XPN.1/FN.1</t>
   </si>
   <si>
-    <t>Patient.name.family.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Patient.name.family.extension</t>
-  </si>
-  <si>
-    <t>Patient.name.family.extension:fathersFamily</t>
-  </si>
-  <si>
-    <t>fathersFamily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {humanname-fathers-family}
-</t>
-  </si>
-  <si>
-    <t>Portion of family name derived from father</t>
-  </si>
-  <si>
-    <t>The portion of the family name that is derived from the person's father.</t>
-  </si>
-  <si>
-    <t>Valero</t>
-  </si>
-  <si>
-    <t>Patient.name.family.extension:mothersFamily</t>
-  </si>
-  <si>
-    <t>mothersFamily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {humanname-mothers-family}
-</t>
-  </si>
-  <si>
-    <t>Portion of family name derived from mother</t>
-  </si>
-  <si>
-    <t>The portion of the family name that is derived from the person's mother.</t>
-  </si>
-  <si>
-    <t>Iglesias</t>
-  </si>
-  <si>
-    <t>Patient.name.family.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>Patient.name.given</t>
   </si>
   <si>
@@ -1057,9 +840,6 @@
     <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
   </si>
   <si>
-    <t>Borja</t>
-  </si>
-  <si>
     <t>HumanName.given</t>
   </si>
   <si>
@@ -1133,6 +913,9 @@
     <t>Patient.telecom</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ContactPoint
 </t>
   </si>
@@ -1404,6 +1187,12 @@
     <t>Patient.birthDate.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
     <t>Patient.birthDate.extension</t>
   </si>
   <si>
@@ -1420,6 +1209,9 @@
   </si>
   <si>
     <t>Primitive value for date</t>
+  </si>
+  <si>
+    <t>The actual value</t>
   </si>
   <si>
     <t>date.value</t>
@@ -1488,6 +1280,9 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -2235,7 +2030,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO99"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2268,7 +2063,7 @@
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2780,10 +2575,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>101</v>
@@ -2794,7 +2589,9 @@
       <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>19</v>
@@ -2843,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2855,10 +2652,10 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>19</v>
@@ -2882,14 +2679,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -2901,16 +2698,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2936,46 +2733,46 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>19</v>
@@ -2992,14 +2789,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3015,10 +2812,10 @@
         <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>118</v>
@@ -3092,7 +2889,7 @@
         <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>19</v>
@@ -3109,21 +2906,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -3132,19 +2929,19 @@
         <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3194,22 +2991,22 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>19</v>
@@ -3226,10 +3023,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3240,7 +3037,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -3249,20 +3046,18 @@
         <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>19</v>
@@ -3299,31 +3094,29 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
@@ -3343,21 +3136,23 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
@@ -3366,20 +3161,18 @@
         <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3416,17 +3209,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3438,7 +3233,7 @@
         <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
@@ -3458,20 +3253,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>87</v>
@@ -3483,20 +3276,18 @@
         <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -3506,7 +3297,7 @@
         <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>19</v>
@@ -3545,22 +3336,22 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>19</v>
@@ -3577,23 +3368,21 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -3602,20 +3391,18 @@
         <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3625,7 +3412,7 @@
         <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>19</v>
@@ -3652,19 +3439,19 @@
         <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3676,7 +3463,7 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>19</v>
@@ -3696,10 +3483,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3707,10 +3494,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3719,19 +3506,19 @@
         <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3739,7 +3526,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>19</v>
@@ -3757,13 +3544,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3781,22 +3568,22 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>19</v>
@@ -3813,10 +3600,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3824,10 +3611,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
@@ -3836,20 +3623,18 @@
         <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3874,13 +3659,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3898,22 +3683,22 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>19</v>
@@ -3930,12 +3715,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3944,29 +3731,27 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -4015,19 +3800,19 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
@@ -4047,12 +3832,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>19</v>
       </c>
@@ -4061,7 +3848,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -4073,17 +3860,15 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -4108,13 +3893,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -4132,19 +3917,19 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>19</v>
@@ -4167,18 +3952,20 @@
         <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -4198,9 +3985,7 @@
       <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -4249,22 +4034,22 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>19</v>
@@ -4281,14 +4066,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4301,24 +4086,26 @@
         <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -4366,7 +4153,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4378,10 +4165,10 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>19</v>
@@ -4398,10 +4185,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4421,19 +4208,21 @@
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
       </c>
@@ -4469,17 +4258,19 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4491,19 +4282,19 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>19</v>
@@ -4511,14 +4302,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C20" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>19</v>
       </c>
@@ -4533,10 +4322,10 @@
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>201</v>
@@ -4547,12 +4336,18 @@
       <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>19</v>
       </c>
@@ -4596,28 +4391,28 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>19</v>
@@ -4628,10 +4423,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4639,31 +4434,35 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -4711,31 +4510,31 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>19</v>
@@ -4743,10 +4542,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4757,7 +4556,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4769,13 +4568,13 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4814,34 +4613,34 @@
         <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>19</v>
@@ -4858,21 +4657,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4884,16 +4683,16 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4901,7 +4700,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>19</v>
@@ -4931,34 +4730,34 @@
         <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>19</v>
@@ -4975,21 +4774,23 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -5001,13 +4802,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5058,22 +4859,22 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
@@ -5090,14 +4891,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>19</v>
       </c>
@@ -5106,28 +4905,32 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
       </c>
@@ -5151,13 +4954,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -5175,22 +4978,22 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>19</v>
@@ -5199,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
@@ -5207,14 +5010,12 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>19</v>
       </c>
@@ -5223,7 +5024,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -5232,19 +5033,23 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
@@ -5292,22 +5097,22 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
@@ -5316,7 +5121,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
@@ -5324,23 +5129,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -5349,18 +5152,20 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5373,7 +5178,7 @@
         <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>19</v>
@@ -5409,22 +5214,22 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>19</v>
@@ -5433,7 +5238,7 @@
         <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5441,14 +5246,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5461,26 +5266,24 @@
         <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -5528,7 +5331,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5540,10 +5343,10 @@
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>19</v>
@@ -5552,7 +5355,7 @@
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5560,10 +5363,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5586,18 +5389,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -5645,7 +5446,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5660,16 +5461,16 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5677,10 +5478,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5691,38 +5492,32 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5766,13 +5561,13 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
@@ -5781,16 +5576,16 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
@@ -5798,10 +5593,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5809,13 +5604,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>19</v>
@@ -5824,19 +5619,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5885,31 +5678,31 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>19</v>
@@ -5917,10 +5710,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5928,10 +5721,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5940,19 +5733,23 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -5988,43 +5785,41 @@
         <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>19</v>
@@ -6032,44 +5827,48 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -6105,19 +5904,19 @@
         <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6129,19 +5928,19 @@
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>19</v>
@@ -6149,14 +5948,12 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>19</v>
       </c>
@@ -6165,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -6177,13 +5974,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6234,22 +6031,22 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>19</v>
@@ -6266,46 +6063,44 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
       </c>
@@ -6329,46 +6124,46 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>19</v>
@@ -6377,7 +6172,7 @@
         <v>19</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -6385,10 +6180,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6396,7 +6191,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -6411,20 +6206,16 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -6433,7 +6224,7 @@
         <v>19</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>19</v>
@@ -6448,13 +6239,13 @@
         <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -6472,7 +6263,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6481,13 +6272,13 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>19</v>
@@ -6496,7 +6287,7 @@
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>19</v>
@@ -6504,14 +6295,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6530,18 +6321,20 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -6553,7 +6346,7 @@
         <v>19</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>19</v>
@@ -6589,7 +6382,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6601,10 +6394,10 @@
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>19</v>
@@ -6613,7 +6406,7 @@
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -6621,10 +6414,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6641,22 +6434,26 @@
         <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -6680,13 +6477,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -6704,7 +6501,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6716,10 +6513,10 @@
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>19</v>
@@ -6728,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>19</v>
@@ -6736,10 +6533,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6750,7 +6547,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6759,18 +6556,20 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6807,32 +6606,34 @@
         <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>19</v>
@@ -6841,7 +6642,7 @@
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6849,14 +6650,12 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6865,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6874,16 +6673,16 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6898,7 +6697,7 @@
         <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>19</v>
@@ -6934,22 +6733,22 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>115</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>19</v>
@@ -6958,7 +6757,7 @@
         <v>19</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6966,44 +6765,48 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -7015,7 +6818,7 @@
         <v>19</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>19</v>
@@ -7051,7 +6854,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7063,19 +6866,19 @@
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -7083,10 +6886,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7109,13 +6912,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>147</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7139,7 +6942,7 @@
         <v>19</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>19</v>
@@ -7166,7 +6969,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>148</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7181,7 +6984,7 @@
         <v>19</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>19</v>
@@ -7198,14 +7001,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7221,19 +7024,19 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7247,7 +7050,7 @@
         <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>19</v>
@@ -7271,19 +7074,19 @@
         <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>154</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7295,10 +7098,10 @@
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>19</v>
@@ -7307,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -7315,10 +7118,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7326,10 +7129,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -7341,13 +7144,13 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7359,7 +7162,7 @@
         <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>19</v>
@@ -7374,13 +7177,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -7398,22 +7201,22 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>19</v>
@@ -7422,7 +7225,7 @@
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -7430,10 +7233,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7444,7 +7247,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -7456,16 +7259,20 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -7513,22 +7320,22 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>350</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>19</v>
@@ -7537,7 +7344,7 @@
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7545,10 +7352,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7565,23 +7372,25 @@
         <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7606,13 +7415,13 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>19</v>
@@ -7630,7 +7439,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7645,7 +7454,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>19</v>
@@ -7654,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7662,10 +7471,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7673,10 +7482,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7688,20 +7497,18 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -7737,23 +7544,25 @@
         <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
@@ -7762,16 +7571,16 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>19</v>
@@ -7779,26 +7588,24 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>19</v>
@@ -7807,20 +7614,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7868,13 +7671,13 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>19</v>
@@ -7883,16 +7686,16 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>283</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>19</v>
@@ -7900,10 +7703,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7923,19 +7726,23 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>102</v>
+        <v>355</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7959,13 +7766,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7983,7 +7790,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>104</v>
+        <v>354</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7995,19 +7802,19 @@
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>19</v>
@@ -8015,21 +7822,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -8038,21 +7845,23 @@
         <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -8088,54 +7897,54 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>105</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>19</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8143,7 +7952,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -8155,16 +7964,16 @@
         <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8176,7 +7985,7 @@
         <v>19</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>19</v>
@@ -8191,13 +8000,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -8215,7 +8024,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8224,13 +8033,13 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>379</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>19</v>
@@ -8239,7 +8048,7 @@
         <v>19</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>19</v>
@@ -8247,10 +8056,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8261,7 +8070,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -8270,23 +8079,19 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
       </c>
@@ -8322,34 +8127,32 @@
         <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>154</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>19</v>
@@ -8358,7 +8161,7 @@
         <v>19</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>19</v>
@@ -8366,12 +8169,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>19</v>
       </c>
@@ -8386,26 +8191,22 @@
         <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -8429,13 +8230,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8453,22 +8254,22 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>154</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>19</v>
@@ -8477,7 +8278,7 @@
         <v>19</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>19</v>
@@ -8485,10 +8286,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8508,20 +8309,18 @@
         <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8570,7 +8369,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8582,10 +8381,10 @@
         <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>19</v>
@@ -8594,7 +8393,7 @@
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
@@ -8602,10 +8401,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8622,22 +8421,26 @@
         <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8685,7 +8488,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8700,16 +8503,16 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>194</v>
+        <v>392</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
@@ -8717,26 +8520,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>19</v>
@@ -8745,19 +8546,19 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8806,7 +8607,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8821,16 +8622,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>19</v>
@@ -8838,10 +8639,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8864,16 +8665,18 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8897,13 +8700,13 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>19</v>
@@ -8921,7 +8724,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8933,19 +8736,19 @@
         <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>19</v>
@@ -8953,21 +8756,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8979,18 +8782,20 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>110</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
       </c>
@@ -9026,43 +8831,43 @@
         <v>19</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>115</v>
+        <v>412</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>105</v>
+        <v>418</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>19</v>
@@ -9070,10 +8875,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9081,10 +8886,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -9093,19 +8898,23 @@
         <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -9114,7 +8923,7 @@
         <v>19</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>415</v>
+        <v>19</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>19</v>
@@ -9129,13 +8938,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -9153,31 +8962,31 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>379</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>19</v>
@@ -9185,10 +8994,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9199,7 +9008,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -9208,22 +9017,22 @@
         <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9272,31 +9081,31 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>19</v>
@@ -9304,10 +9113,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9324,26 +9133,22 @@
         <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>146</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -9367,13 +9172,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -9391,7 +9196,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>400</v>
+        <v>148</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9403,10 +9208,10 @@
         <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>19</v>
@@ -9415,7 +9220,7 @@
         <v>19</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>401</v>
+        <v>19</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>19</v>
@@ -9423,21 +9228,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -9446,19 +9251,19 @@
         <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>406</v>
+        <v>223</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>407</v>
+        <v>188</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9508,22 +9313,22 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>154</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>19</v>
@@ -9532,7 +9337,7 @@
         <v>19</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>19</v>
@@ -9540,42 +9345,46 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -9623,22 +9432,22 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>19</v>
@@ -9647,7 +9456,7 @@
         <v>19</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>19</v>
@@ -9655,10 +9464,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9669,7 +9478,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
@@ -9678,22 +9487,20 @@
         <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>171</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9718,13 +9525,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9742,13 +9549,13 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
@@ -9757,16 +9564,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>432</v>
+        <v>150</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>19</v>
@@ -9774,10 +9581,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9785,7 +9592,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9797,22 +9604,20 @@
         <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>435</v>
+        <v>210</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9861,7 +9666,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9876,27 +9681,27 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>440</v>
+        <v>216</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>441</v>
+        <v>150</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>443</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9907,7 +9712,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -9919,16 +9724,20 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>307</v>
+        <v>458</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
       </c>
@@ -9976,31 +9785,31 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
@@ -10008,10 +9817,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10022,7 +9831,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -10034,16 +9843,18 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>196</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>197</v>
+        <v>464</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -10079,41 +9890,43 @@
         <v>19</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>115</v>
+        <v>462</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>19</v>
+        <v>466</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
@@ -10121,14 +9934,12 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>19</v>
       </c>
@@ -10149,16 +9960,18 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
       </c>
@@ -10182,13 +9995,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -10206,31 +10019,31 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>115</v>
+        <v>467</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>19</v>
+        <v>471</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>19</v>
@@ -10238,10 +10051,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10264,16 +10077,18 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -10321,7 +10136,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10330,22 +10145,22 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>19</v>
+        <v>477</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>19</v>
@@ -10353,10 +10168,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10373,26 +10188,22 @@
         <v>19</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>453</v>
+        <v>278</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10440,7 +10251,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10455,16 +10266,16 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>19</v>
@@ -10472,10 +10283,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10495,22 +10306,22 @@
         <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>218</v>
+        <v>429</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -10559,7 +10370,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10574,16 +10385,16 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>467</v>
+        <v>19</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>19</v>
@@ -10591,10 +10402,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10617,18 +10428,16 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>220</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>146</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>147</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
       </c>
@@ -10652,13 +10461,13 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -10676,7 +10485,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>468</v>
+        <v>148</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10688,19 +10497,19 @@
         <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>475</v>
+        <v>150</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>476</v>
+        <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>477</v>
+        <v>19</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>19</v>
@@ -10708,21 +10517,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>19</v>
@@ -10734,20 +10543,18 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>479</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>222</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>481</v>
+        <v>223</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>19</v>
       </c>
@@ -10795,31 +10602,31 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>478</v>
+        <v>154</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>484</v>
+        <v>150</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>19</v>
@@ -10827,14 +10634,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10847,25 +10654,25 @@
         <v>19</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>487</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>490</v>
+        <v>188</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>491</v>
+        <v>189</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -10914,7 +10721,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10926,19 +10733,19 @@
         <v>19</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>492</v>
+        <v>130</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>19</v>
@@ -10957,10 +10764,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>19</v>
@@ -10972,19 +10779,19 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -11009,13 +10816,13 @@
         <v>19</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>19</v>
@@ -11036,28 +10843,28 @@
         <v>494</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>19</v>
@@ -11091,16 +10898,20 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>102</v>
+        <v>503</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
       </c>
@@ -11148,7 +10959,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>104</v>
+        <v>502</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11160,19 +10971,19 @@
         <v>19</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>105</v>
+        <v>507</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>19</v>
+        <v>508</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>19</v>
+        <v>509</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>19</v>
@@ -11180,14 +10991,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>107</v>
+        <v>511</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11206,16 +11017,16 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>512</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>109</v>
+        <v>513</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>110</v>
+        <v>514</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>111</v>
+        <v>515</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11265,7 +11076,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>115</v>
+        <v>510</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11277,19 +11088,19 @@
         <v>19</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>105</v>
+        <v>516</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>19</v>
+        <v>517</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
@@ -11297,45 +11108,45 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>505</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>473</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>111</v>
+        <v>521</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>241</v>
+        <v>522</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
@@ -11384,25 +11195,25 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>19</v>
+        <v>523</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>19</v>
@@ -11416,10 +11227,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11436,23 +11247,25 @@
         <v>19</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>510</v>
+        <v>429</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O79" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
@@ -11477,13 +11290,13 @@
         <v>19</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>514</v>
+        <v>19</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>515</v>
+        <v>19</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>19</v>
@@ -11501,7 +11314,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11516,16 +11329,16 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>517</v>
+        <v>19</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>19</v>
@@ -11533,10 +11346,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11559,18 +11372,16 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>519</v>
+        <v>146</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>520</v>
+        <v>147</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>521</v>
-      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>19</v>
       </c>
@@ -11618,7 +11429,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>518</v>
+        <v>148</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11630,19 +11441,19 @@
         <v>19</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>522</v>
+        <v>19</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>19</v>
@@ -11650,14 +11461,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11676,20 +11487,18 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>524</v>
+        <v>222</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>525</v>
+        <v>223</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>19</v>
       </c>
@@ -11737,7 +11546,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>523</v>
+        <v>154</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11749,19 +11558,19 @@
         <v>19</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>363</v>
+        <v>150</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>527</v>
+        <v>19</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>19</v>
@@ -11769,43 +11578,45 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>19</v>
+        <v>439</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>529</v>
+        <v>440</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>531</v>
+        <v>189</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -11854,31 +11665,31 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>528</v>
+        <v>442</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>465</v>
+        <v>130</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>532</v>
+        <v>19</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>19</v>
@@ -11897,7 +11708,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>87</v>
@@ -11909,21 +11720,21 @@
         <v>19</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>534</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
         <v>536</v>
       </c>
+      <c r="N83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>19</v>
       </c>
@@ -11947,13 +11758,13 @@
         <v>19</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>19</v>
@@ -11974,7 +11785,7 @@
         <v>533</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>87</v>
@@ -11986,16 +11797,16 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>431</v>
+        <v>196</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>19</v>
@@ -12003,10 +11814,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12014,7 +11825,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>87</v>
@@ -12026,10 +11837,10 @@
         <v>19</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>539</v>
+        <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>540</v>
@@ -12038,9 +11849,7 @@
         <v>541</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>542</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>19</v>
       </c>
@@ -12064,13 +11873,13 @@
         <v>19</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>19</v>
+        <v>541</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>19</v>
@@ -12088,1799 +11897,38 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>543</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="P91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO99" t="s" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO99">
+  <autoFilter ref="A1:AO84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13890,7 +11938,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-VunsPatient.xlsx
+++ b/StructureDefinition-VunsPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsPatient.xlsx
+++ b/StructureDefinition-VunsPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3153" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T10:00:58+02:00</t>
+    <t>2025-06-02T10:39:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1089,7 +1089,15 @@
     <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Patient.telecom:email</t>
@@ -1187,12 +1195,6 @@
     <t>Patient.birthDate.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
     <t>Patient.birthDate.extension</t>
   </si>
   <si>
@@ -1209,9 +1211,6 @@
   </si>
   <si>
     <t>Primitive value for date</t>
-  </si>
-  <si>
-    <t>The actual value</t>
   </si>
   <si>
     <t>date.value</t>
@@ -6684,7 +6683,9 @@
       <c r="M40" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6733,7 +6734,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6742,10 +6743,10 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>283</v>
@@ -6765,13 +6766,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>285</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>19</v>
@@ -6886,7 +6887,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>299</v>
@@ -7001,7 +7002,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>301</v>
@@ -7118,7 +7119,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>303</v>
@@ -7162,7 +7163,7 @@
         <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>19</v>
@@ -7233,7 +7234,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>313</v>
@@ -7332,7 +7333,7 @@
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>320</v>
@@ -7352,7 +7353,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>323</v>
@@ -7471,7 +7472,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>333</v>
@@ -7588,7 +7589,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>340</v>
@@ -7622,7 +7623,9 @@
       <c r="M48" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7671,7 +7674,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7680,10 +7683,10 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>283</v>
@@ -7703,10 +7706,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7732,16 +7735,16 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7769,10 +7772,10 @@
         <v>234</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7790,7 +7793,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7805,16 +7808,16 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>19</v>
@@ -7822,10 +7825,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7848,19 +7851,19 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7909,7 +7912,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7924,27 +7927,27 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7970,10 +7973,10 @@
         <v>220</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>375</v>
+        <v>146</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>376</v>
+        <v>147</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8039,7 +8042,7 @@
         <v>19</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>19</v>
@@ -8063,7 +8066,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8085,12 +8088,14 @@
         <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8129,7 +8134,9 @@
       <c r="AB52" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AC52" s="2"/>
+      <c r="AC52" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>19</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>19</v>
@@ -8178,7 +8185,7 @@
         <v>379</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8205,7 +8212,9 @@
       <c r="M53" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8263,7 +8272,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>138</v>
@@ -8312,13 +8321,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8369,7 +8378,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8401,10 +8410,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8427,19 +8436,19 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8488,7 +8497,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8503,7 +8512,7 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>150</v>
@@ -8512,7 +8521,7 @@
         <v>19</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
@@ -8520,10 +8529,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8549,16 +8558,16 @@
         <v>164</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8607,7 +8616,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8622,16 +8631,16 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>19</v>
@@ -8639,10 +8648,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8665,17 +8674,17 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8700,14 +8709,14 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8724,7 +8733,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8739,16 +8748,16 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>19</v>
@@ -8756,10 +8765,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8782,19 +8791,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8843,7 +8852,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8858,7 +8867,7 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>150</v>
@@ -8867,7 +8876,7 @@
         <v>19</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>19</v>
@@ -8875,10 +8884,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8901,19 +8910,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8962,7 +8971,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8977,7 +8986,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>150</v>
@@ -8986,7 +8995,7 @@
         <v>19</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>19</v>
@@ -8994,10 +9003,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9020,19 +9029,19 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9081,7 +9090,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9093,10 +9102,10 @@
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>150</v>
@@ -9113,10 +9122,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9228,10 +9237,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9345,14 +9354,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9374,10 +9383,10 @@
         <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>188</v>
@@ -9432,7 +9441,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9464,10 +9473,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9490,17 +9499,17 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -9525,14 +9534,14 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
       </c>
@@ -9549,7 +9558,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9564,7 +9573,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>150</v>
@@ -9573,7 +9582,7 @@
         <v>19</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>19</v>
@@ -9581,10 +9590,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9610,14 +9619,14 @@
         <v>210</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9666,7 +9675,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9690,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
@@ -9698,10 +9707,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9727,13 +9736,13 @@
         <v>287</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>291</v>
@@ -9785,7 +9794,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9809,7 +9818,7 @@
         <v>19</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
@@ -9817,10 +9826,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9846,14 +9855,14 @@
         <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9902,7 +9911,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9917,7 +9926,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>150</v>
@@ -9926,7 +9935,7 @@
         <v>19</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
@@ -9934,10 +9943,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9963,14 +9972,14 @@
         <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -9998,10 +10007,10 @@
         <v>234</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -10019,7 +10028,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10034,7 +10043,7 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>150</v>
@@ -10043,7 +10052,7 @@
         <v>19</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>19</v>
@@ -10051,10 +10060,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10077,17 +10086,17 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -10136,7 +10145,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10145,13 +10154,13 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>150</v>
@@ -10160,7 +10169,7 @@
         <v>19</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>19</v>
@@ -10168,10 +10177,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10197,10 +10206,10 @@
         <v>278</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10251,7 +10260,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10266,7 +10275,7 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>150</v>
@@ -10283,10 +10292,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10309,19 +10318,19 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -10370,7 +10379,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10385,10 +10394,10 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>19</v>
@@ -10402,10 +10411,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10517,10 +10526,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10634,14 +10643,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10663,10 +10672,10 @@
         <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>188</v>
@@ -10721,7 +10730,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10753,10 +10762,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10779,19 +10788,19 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -10840,7 +10849,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>87</v>
@@ -10855,16 +10864,16 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>19</v>
@@ -10872,10 +10881,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10901,16 +10910,16 @@
         <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -10959,7 +10968,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10974,16 +10983,16 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>19</v>
@@ -10991,14 +11000,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11017,16 +11026,16 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11076,7 +11085,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11091,7 +11100,7 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>150</v>
@@ -11100,7 +11109,7 @@
         <v>19</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
@@ -11108,10 +11117,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11134,19 +11143,19 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
@@ -11195,7 +11204,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11210,10 +11219,10 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>19</v>
@@ -11227,10 +11236,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11253,19 +11262,19 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
@@ -11314,7 +11323,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11329,7 +11338,7 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>150</v>
@@ -11346,10 +11355,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11461,10 +11470,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11578,14 +11587,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11607,10 +11616,10 @@
         <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>188</v>
@@ -11665,7 +11674,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11697,10 +11706,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11723,16 +11732,16 @@
         <v>88</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11782,7 +11791,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>87</v>
@@ -11806,7 +11815,7 @@
         <v>19</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>19</v>
@@ -11814,10 +11823,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11843,10 +11852,10 @@
         <v>107</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11876,11 +11885,11 @@
         <v>234</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="AA84" t="s" s="2">
         <v>19</v>
       </c>
@@ -11897,7 +11906,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>87</v>
@@ -11912,7 +11921,7 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>150</v>
